--- a/Netcore_Task_ManualTestCases.xlsx
+++ b/Netcore_Task_ManualTestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Body</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>"Select All" in that particular grid and across all the grids should get selected.</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -276,18 +279,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -305,16 +340,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table24" displayName="Table24" ref="A14:G81" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table24" displayName="Table24" ref="A14:G81" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
   <autoFilter ref="A14:G81"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="STEP NO"/>
-    <tableColumn id="2" name="ACTION/DESCRIPTION"/>
-    <tableColumn id="3" name="INPUT"/>
-    <tableColumn id="4" name="EXPECTED DATA"/>
-    <tableColumn id="5" name="Actual Result"/>
-    <tableColumn id="6" name="Status"/>
-    <tableColumn id="7" name="Comments"/>
+    <tableColumn id="1" name="STEP NO" dataDxfId="7"/>
+    <tableColumn id="2" name="ACTION/DESCRIPTION" dataDxfId="6"/>
+    <tableColumn id="3" name="INPUT" dataDxfId="5"/>
+    <tableColumn id="4" name="EXPECTED DATA" dataDxfId="4"/>
+    <tableColumn id="5" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="6" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G78"/>
+  <dimension ref="A2:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,39 +636,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -664,254 +699,771 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
